--- a/data/output/FV2504_FV2410/ORDERS/17006.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17006.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="184">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="184">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -655,6 +655,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U66" totalsRowShown="0">
+  <autoFilter ref="A1:U66"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,7 +974,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4107,5 +4140,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17006.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17006.xlsx
@@ -1310,7 +1310,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3022,52 +3022,52 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="5"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4048,7 +4048,7 @@
         <v>172</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4176,52 +4176,52 @@
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="O58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P58" s="5"/>
+      <c r="P58" s="2"/>
       <c r="Q58" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="V58" s="5"/>
+      <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4392,48 +4392,48 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5" t="s">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4490,48 +4490,48 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="2"/>
       <c r="L64" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5" t="s">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P64" s="5"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="V64" s="5"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
